--- a/sorensenLab/relatedToDlg2/design20210912_dlg2CrisprKo/oligosDesignWorkbookInducibleYbx1.xlsx
+++ b/sorensenLab/relatedToDlg2/design20210912_dlg2CrisprKo/oligosDesignWorkbookInducibleYbx1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chughes\Documents\bccrc\projectsWorkspace\sorensenLab\relatedToYbx1\design20210909_inducibleYbx1Construct\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chughes\Documents\bccrc\projectsWorkspace\sorensenLab\relatedToDlg2\design20210912_dlg2CrisprKo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -552,7 +552,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
